--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.674595514621974</v>
+        <v>0.01246433333333333</v>
       </c>
       <c r="H2">
-        <v>0.674595514621974</v>
+        <v>0.037393</v>
       </c>
       <c r="I2">
-        <v>0.4549961583014883</v>
+        <v>0.0065371131913745</v>
       </c>
       <c r="J2">
-        <v>0.4549961583014883</v>
+        <v>0.006537113191374499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N2">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P2">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q2">
-        <v>0.7252858343462868</v>
+        <v>0.01847360863655555</v>
       </c>
       <c r="R2">
-        <v>0.7252858343462868</v>
+        <v>0.166262477729</v>
       </c>
       <c r="S2">
-        <v>0.05130692669893146</v>
+        <v>0.0009163916491346595</v>
       </c>
       <c r="T2">
-        <v>0.05130692669893146</v>
+        <v>0.0009163916491346592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.674595514621974</v>
+        <v>0.01246433333333333</v>
       </c>
       <c r="H3">
-        <v>0.674595514621974</v>
+        <v>0.037393</v>
       </c>
       <c r="I3">
-        <v>0.4549961583014883</v>
+        <v>0.0065371131913745</v>
       </c>
       <c r="J3">
-        <v>0.4549961583014883</v>
+        <v>0.006537113191374499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N3">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P3">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q3">
-        <v>1.585100977016934</v>
+        <v>0.02948799931144444</v>
       </c>
       <c r="R3">
-        <v>1.585100977016934</v>
+        <v>0.2653919938029999</v>
       </c>
       <c r="S3">
-        <v>0.1121304950227157</v>
+        <v>0.001462765442872059</v>
       </c>
       <c r="T3">
-        <v>0.1121304950227157</v>
+        <v>0.001462765442872058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.674595514621974</v>
+        <v>0.01246433333333333</v>
       </c>
       <c r="H4">
-        <v>0.674595514621974</v>
+        <v>0.037393</v>
       </c>
       <c r="I4">
-        <v>0.4549961583014883</v>
+        <v>0.0065371131913745</v>
       </c>
       <c r="J4">
-        <v>0.4549961583014883</v>
+        <v>0.006537113191374499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.10964258366618</v>
+        <v>6.724832333333333</v>
       </c>
       <c r="N4">
-        <v>6.10964258366618</v>
+        <v>20.174497</v>
       </c>
       <c r="O4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="P4">
-        <v>0.6407938424540484</v>
+        <v>0.6360538631722126</v>
       </c>
       <c r="Q4">
-        <v>4.121537482884613</v>
+        <v>0.08382055181344443</v>
       </c>
       <c r="R4">
-        <v>4.121537482884613</v>
+        <v>0.7543849663209998</v>
       </c>
       <c r="S4">
-        <v>0.2915587365798412</v>
+        <v>0.004157956099367782</v>
       </c>
       <c r="T4">
-        <v>0.2915587365798412</v>
+        <v>0.004157956099367781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.808044508406474</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
-        <v>0.808044508406474</v>
+        <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5450038416985117</v>
+        <v>0.5215143627507798</v>
       </c>
       <c r="J5">
-        <v>0.5450038416985117</v>
+        <v>0.5215143627507798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07514179775227</v>
+        <v>1.482117666666667</v>
       </c>
       <c r="N5">
-        <v>1.07514179775227</v>
+        <v>4.446353</v>
       </c>
       <c r="O5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="P5">
-        <v>0.1127634283561019</v>
+        <v>0.1401829251394648</v>
       </c>
       <c r="Q5">
-        <v>0.8687624254319857</v>
+        <v>1.473777790556333</v>
       </c>
       <c r="R5">
-        <v>0.8687624254319857</v>
+        <v>13.264000115007</v>
       </c>
       <c r="S5">
-        <v>0.0614565016571704</v>
+        <v>0.07310740887264826</v>
       </c>
       <c r="T5">
-        <v>0.0614565016571704</v>
+        <v>0.07310740887264824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.808044508406474</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
-        <v>0.808044508406474</v>
+        <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5450038416985117</v>
+        <v>0.5215143627507798</v>
       </c>
       <c r="J6">
-        <v>0.5450038416985117</v>
+        <v>0.5215143627507798</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.3497057757717</v>
+        <v>2.365790333333333</v>
       </c>
       <c r="N6">
-        <v>2.3497057757717</v>
+        <v>7.097371</v>
       </c>
       <c r="O6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883227</v>
       </c>
       <c r="P6">
-        <v>0.2464427291898497</v>
+        <v>0.2237632116883226</v>
       </c>
       <c r="Q6">
-        <v>1.898666848483296</v>
+        <v>2.352478031127667</v>
       </c>
       <c r="R6">
-        <v>1.898666848483296</v>
+        <v>21.172302280149</v>
       </c>
       <c r="S6">
-        <v>0.134312234167134</v>
+        <v>0.1166957287507034</v>
       </c>
       <c r="T6">
-        <v>0.134312234167134</v>
+        <v>0.1166957287507034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9943730000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.983119</v>
+      </c>
+      <c r="I7">
+        <v>0.5215143627507798</v>
+      </c>
+      <c r="J7">
+        <v>0.5215143627507798</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.724832333333333</v>
+      </c>
+      <c r="N7">
+        <v>20.174497</v>
+      </c>
+      <c r="O7">
+        <v>0.6360538631722126</v>
+      </c>
+      <c r="P7">
+        <v>0.6360538631722126</v>
+      </c>
+      <c r="Q7">
+        <v>6.686991701793667</v>
+      </c>
+      <c r="R7">
+        <v>60.182925316143</v>
+      </c>
+      <c r="S7">
+        <v>0.3317112251274281</v>
+      </c>
+      <c r="T7">
+        <v>0.3317112251274281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8998656666666666</v>
+      </c>
+      <c r="H8">
+        <v>2.699597</v>
+      </c>
+      <c r="I8">
+        <v>0.4719485240578458</v>
+      </c>
+      <c r="J8">
+        <v>0.4719485240578457</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.482117666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.446353</v>
+      </c>
+      <c r="O8">
+        <v>0.1401829251394648</v>
+      </c>
+      <c r="P8">
+        <v>0.1401829251394648</v>
+      </c>
+      <c r="Q8">
+        <v>1.333706802193444</v>
+      </c>
+      <c r="R8">
+        <v>12.003361219741</v>
+      </c>
+      <c r="S8">
+        <v>0.06615912461768191</v>
+      </c>
+      <c r="T8">
+        <v>0.06615912461768188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.808044508406474</v>
-      </c>
-      <c r="H7">
-        <v>0.808044508406474</v>
-      </c>
-      <c r="I7">
-        <v>0.5450038416985117</v>
-      </c>
-      <c r="J7">
-        <v>0.5450038416985117</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.10964258366618</v>
-      </c>
-      <c r="N7">
-        <v>6.10964258366618</v>
-      </c>
-      <c r="O7">
-        <v>0.6407938424540484</v>
-      </c>
-      <c r="P7">
-        <v>0.6407938424540484</v>
-      </c>
-      <c r="Q7">
-        <v>4.936863138057799</v>
-      </c>
-      <c r="R7">
-        <v>4.936863138057799</v>
-      </c>
-      <c r="S7">
-        <v>0.3492351058742072</v>
-      </c>
-      <c r="T7">
-        <v>0.3492351058742072</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8998656666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.699597</v>
+      </c>
+      <c r="I9">
+        <v>0.4719485240578458</v>
+      </c>
+      <c r="J9">
+        <v>0.4719485240578457</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.365790333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.097371</v>
+      </c>
+      <c r="O9">
+        <v>0.2237632116883227</v>
+      </c>
+      <c r="P9">
+        <v>0.2237632116883226</v>
+      </c>
+      <c r="Q9">
+        <v>2.128893495498555</v>
+      </c>
+      <c r="R9">
+        <v>19.160041459487</v>
+      </c>
+      <c r="S9">
+        <v>0.1056047174947472</v>
+      </c>
+      <c r="T9">
+        <v>0.1056047174947471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8998656666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.699597</v>
+      </c>
+      <c r="I10">
+        <v>0.4719485240578458</v>
+      </c>
+      <c r="J10">
+        <v>0.4719485240578457</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.724832333333333</v>
+      </c>
+      <c r="N10">
+        <v>20.174497</v>
+      </c>
+      <c r="O10">
+        <v>0.6360538631722126</v>
+      </c>
+      <c r="P10">
+        <v>0.6360538631722126</v>
+      </c>
+      <c r="Q10">
+        <v>6.051445730856554</v>
+      </c>
+      <c r="R10">
+        <v>54.46301157770899</v>
+      </c>
+      <c r="S10">
+        <v>0.3001846819454167</v>
+      </c>
+      <c r="T10">
+        <v>0.3001846819454166</v>
       </c>
     </row>
   </sheetData>
